--- a/Feuille de Test.xlsx
+++ b/Feuille de Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Projet_github\PTSIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\PTSIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDA3DB6-FE9F-49E9-A7ED-E30199C24F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1096DF-B825-4A0E-8DF1-A762737A3D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="672" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Protocole utilisé</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>FEUILLE DE TEST</t>
   </si>
@@ -43,16 +40,54 @@
   </si>
   <si>
     <t>Commentaires</t>
+  </si>
+  <si>
+    <t>ping of death -&gt; linux  (kali) "l2ping"</t>
+  </si>
+  <si>
+    <t>Fonctionne</t>
+  </si>
+  <si>
+    <t>Peu concluant</t>
+  </si>
+  <si>
+    <t>Protocole Bluetooth utilisé</t>
+  </si>
+  <si>
+    <t>https://www.conrad.fr/p/gembird-bhp-mia-miami-bluetooth-casque-supra-auriculaire-circum-aural-micro-casque-noir-1998751</t>
+  </si>
+  <si>
+    <t>Version 2,1 avec EDR (plus sécur, moins gourmant)</t>
+  </si>
+  <si>
+    <t>Lien complémentaire (mode d'emploi)</t>
+  </si>
+  <si>
+    <t>Enceinte Bluetooth : muse M312 BT</t>
+  </si>
+  <si>
+    <t>Version 4,2</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,16 +110,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -363,47 +401,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="111.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="https://github.com/Slimtrat/PTSIOS.git" xr:uid="{4050F8EB-6BE1-468C-9674-0426DB90D0F6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Feuille de Test.xlsx
+++ b/Feuille de Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\PTSIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1096DF-B825-4A0E-8DF1-A762737A3D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A2E838-307F-4B5C-84E9-8B301C982D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="672" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>FEUILLE DE TEST</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>ping of death -&gt; Blue Snarfer</t>
+  </si>
+  <si>
+    <t>Ne fonctionne pas</t>
+  </si>
+  <si>
+    <t>Aucun envoi de donnée : sécurisé</t>
   </si>
 </sst>
 </file>
@@ -116,10 +125,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -403,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,8 +425,8 @@
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -442,7 +451,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -456,6 +465,28 @@
       </c>
       <c r="E4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">

--- a/Feuille de Test.xlsx
+++ b/Feuille de Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\PTSIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A2E838-307F-4B5C-84E9-8B301C982D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B13546A-5B0E-4918-9744-2FC1C19AF3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="672" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>FEUILLE DE TEST</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>Aucun envoi de donnée : sécurisé</t>
+  </si>
+  <si>
+    <t>hpb Mia</t>
+  </si>
+  <si>
+    <t>Coupe quasiment complétement la transmission slave/Master</t>
+  </si>
+  <si>
+    <t>Blue Snack - ddos (variante de l2ping, plus de boucle)</t>
   </si>
 </sst>
 </file>
@@ -410,19 +419,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" customWidth="1"/>
     <col min="2" max="2" width="111.42578125" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -498,6 +508,23 @@
       </c>
       <c r="C7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
